--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -80,33 +80,6 @@
     <t>Q</t>
   </si>
   <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>G14</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q14</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -120,6 +93,33 @@
   </si>
   <si>
     <t>EndLR(2)</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q2</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="B1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,53 +540,47 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="V1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="X1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Y1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q2" s="4"/>
       <c r="R2" s="3">
         <v>14</v>
       </c>
       <c r="U2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V2">
         <v>5</v>
       </c>
       <c r="X2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -596,31 +590,37 @@
       <c r="C3" s="3">
         <v>13</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="R3" s="3">
         <v>13</v>
       </c>
       <c r="U3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="V3">
         <v>6</v>
       </c>
       <c r="X3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -648,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="U4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="V4">
         <v>7</v>
@@ -676,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="U5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="V5">
         <v>8</v>
@@ -704,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="U6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="V6">
         <v>9</v>
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="U7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V7">
         <v>10</v>
@@ -751,20 +751,26 @@
       <c r="C8" s="3">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="R8" s="3">
         <v>8</v>
       </c>
@@ -772,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="U8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="V8">
         <v>11</v>
@@ -782,31 +788,25 @@
       <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="Q9" s="4"/>
       <c r="R9" s="3">
         <v>7</v>
       </c>
       <c r="U9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V9">
         <v>12</v>
@@ -834,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="U10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V10">
         <v>13</v>
@@ -910,20 +910,26 @@
       <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R14" s="3">
         <v>2</v>
       </c>
@@ -932,26 +938,20 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q15" s="4"/>
       <c r="R15" s="3">
         <v>1</v>
       </c>
